--- a/biology/Botanique/Enterolobium/Enterolobium.xlsx
+++ b/biology/Botanique/Enterolobium/Enterolobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enterolobium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire d'Amérique, qui comprend 11 espèces acceptées (anciennement 13), et dont l'espèce type est Enterolobium contortisiliquum (Vell.) Morong.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Des analyses moléculaires ont permis de séparer le genre Enterolobium en deux et d'en isoler 3 espèces dans le genre Robrichia (Barneby &amp; J.W. Grimes) A.R.M. Luz &amp; É.R. Souza, 2022[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Des analyses moléculaires ont permis de séparer le genre Enterolobium en deux et d'en isoler 3 espèces dans le genre Robrichia (Barneby &amp; J.W. Grimes) A.R.M. Luz &amp; É.R. Souza, 2022 :
 Robrichia glaziovii (Benth.) A.R.M. Luz &amp; É.R. Souza, 2022 (= Enterolobium glaziovii (Benth.) Mesquita)
 Robrichia oldemanii (Barneby &amp; J.W. Grimes) A.R.M. Luz &amp; É.R. Souza, 2022 (= Enterolobium oldemanii Barneby &amp; J.W.Grimes)
 Robrichia schomburgkii (Benth.) A.R.M. Luz &amp; É.R. Souza, 2022 (= Enterolobium schomburgkii (Benth.) Benth.)</t>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (05 juin 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (05 juin 2022) :
 Enterolobium barinense L.Cárdenas &amp; H.Rodr.-Carr.
 Enterolobium barnebianum Mesquita &amp; M.F.Silva
 Enterolobium contortisiliqua Manganaro
@@ -561,7 +577,7 @@
 Robrichia schomburgkii (Benth.) A.R.M. Luz &amp; É.R. Souza, 2022 (= Enterolobium schomburgkii (Benth.) Benth.)
 Enterolobium timbouva Benth.
 Enterolobium timbouva Mart.
-Selon The Plant List            (18 octobre 2018)[4] :
+Selon The Plant List            (18 octobre 2018) :
 Enterolobium barinense Cardenas &amp; Rodriguez
 Enterolobium barnebianum Mesquita &amp; M.F.Silva
 Enterolobium contortisiliquum (Vell.) Morong
